--- a/data/trans_bre/P1401-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Edad-trans_bre.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.258592230054923</v>
+        <v>-1.235471642221212</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.675160510140579</v>
+        <v>-1.697954069560573</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1305611937329807</v>
+        <v>-0.1310161705833646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8676734353879511</v>
+        <v>1.010389695271633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3840761448310098</v>
+        <v>0.3886638865755199</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -742,7 +742,7 @@
         <v>1.305107999471294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4226446186626093</v>
+        <v>0.4226446186626097</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.93108803854612</v>
@@ -751,7 +751,7 @@
         <v>8.590822528963935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1.03096628354089</v>
+        <v>1.030966283540891</v>
       </c>
     </row>
     <row r="11">
@@ -762,20 +762,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3665947019597404</v>
+        <v>-0.5117324834629717</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4779252826147694</v>
+        <v>0.4091423341546041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3896683928800289</v>
+        <v>-0.5131711331539994</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4971359268132504</v>
+        <v>-0.612529023708502</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.6992750270810653</v>
+        <v>-0.7963746884960541</v>
       </c>
     </row>
     <row r="12">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.017667893550584</v>
+        <v>2.050846364198454</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.488315633436356</v>
+        <v>2.416236525779245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.317310125403486</v>
+        <v>1.194097824771424</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>6.932428330002637</v>
+        <v>6.09405987876248</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -818,7 +818,7 @@
         <v>1.150387247303683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.212398387757269</v>
+        <v>1.21239838775727</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>2.766583886560449</v>
@@ -827,7 +827,7 @@
         <v>1.168046774427118</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.877846444983174</v>
+        <v>0.8778464449831748</v>
       </c>
     </row>
     <row r="14">
@@ -838,22 +838,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9100822994003787</v>
+        <v>0.8859573480775533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.04799538249076744</v>
+        <v>-0.1614506907837346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1711744373829203</v>
+        <v>-0.1731725953529031</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4204467682786218</v>
+        <v>0.4097270405108999</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1269154968395539</v>
+        <v>-0.1769733876337512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1457289064810117</v>
+        <v>-0.1151831842327808</v>
       </c>
     </row>
     <row r="15">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.616795723763166</v>
+        <v>4.347453584943175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.658819811992795</v>
+        <v>2.520229442431097</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.428810610533846</v>
+        <v>2.526055474161229</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18.27463025069273</v>
+        <v>12.59037848445605</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.368171157859591</v>
+        <v>5.955878744755021</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.021750382627292</v>
+        <v>3.621382403028584</v>
       </c>
     </row>
     <row r="16">
@@ -920,22 +920,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4020858951974714</v>
+        <v>0.6815725366162119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.009346112691302868</v>
+        <v>0.06776475417966976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.975390176022683</v>
+        <v>-1.889639388940167</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.01392977187353261</v>
+        <v>0.1456916964638564</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3024691328666155</v>
+        <v>-0.2360284253877003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4370385953824628</v>
+        <v>-0.4098874653387424</v>
       </c>
     </row>
     <row r="18">
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.021163583771713</v>
+        <v>5.323638532796136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.485577223870041</v>
+        <v>3.461117495043838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.62349300460638</v>
+        <v>1.743095940578037</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5.617677586709321</v>
+        <v>6.303312028753091</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7.0749540711313</v>
+        <v>6.017538935438007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6782411920024118</v>
+        <v>0.7194254995721714</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>3.168730674593888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2404213325610603</v>
+        <v>0.240421332561061</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.09779146575538404</v>
@@ -991,7 +991,7 @@
         <v>1.818520896354979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0551559082776089</v>
+        <v>0.05515590827760906</v>
       </c>
     </row>
     <row r="20">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.970507232069335</v>
+        <v>-3.417471518022312</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7488866720481464</v>
+        <v>0.6087013698068148</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.936455803427261</v>
+        <v>-1.808488912795176</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6950400642190644</v>
+        <v>-0.6417196349449903</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1034251100262407</v>
+        <v>0.0795416398792831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3680101888433306</v>
+        <v>-0.3367063050961236</v>
       </c>
     </row>
     <row r="21">
@@ -1028,22 +1028,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.168403323897842</v>
+        <v>2.564171786729015</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.886812050907213</v>
+        <v>5.976081989710104</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.509773844270742</v>
+        <v>2.333140386243702</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.179415614942996</v>
+        <v>1.640658495424577</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.766770270068655</v>
+        <v>7.12736909792267</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7813290373406195</v>
+        <v>0.7924637876062512</v>
       </c>
     </row>
     <row r="22">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.358249185194136</v>
+        <v>-3.073938588924139</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.022896585015721</v>
+        <v>-3.920647908261682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.251957251736553</v>
+        <v>-6.203217416271394</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.711625194982222</v>
+        <v>-0.687022920887159</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.677539678737172</v>
+        <v>-0.6474701757501843</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6553577738855465</v>
+        <v>-0.6432725583036804</v>
       </c>
     </row>
     <row r="24">
@@ -1110,22 +1110,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.130841793499568</v>
+        <v>2.028963741190761</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.768748216291411</v>
+        <v>2.646864382104244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2914423060751156</v>
+        <v>-0.5846114532043237</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.714078868759876</v>
+        <v>1.543076998176586</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.090715055119789</v>
+        <v>1.044194049835002</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.01974775561498405</v>
+        <v>-0.0682076902122512</v>
       </c>
     </row>
     <row r="25">
@@ -1146,7 +1146,7 @@
         <v>1.131332573612726</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1609234126149942</v>
+        <v>0.1609234126149939</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.7625960841850347</v>
@@ -1155,7 +1155,7 @@
         <v>1.291491483090923</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07613424529314622</v>
+        <v>0.07613424529314604</v>
       </c>
     </row>
     <row r="26">
@@ -1166,22 +1166,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3017580719721132</v>
+        <v>0.2233403665653746</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5534525190978073</v>
+        <v>0.575806202303519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.3970961759867206</v>
+        <v>-0.3946519663645293</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2146276658481644</v>
+        <v>0.1397426135218945</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4336076597572228</v>
+        <v>0.5064933335453624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1613477232672585</v>
+        <v>-0.1599464559921509</v>
       </c>
     </row>
     <row r="27">
@@ -1192,22 +1192,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.490660141799615</v>
+        <v>1.474110211831698</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.786634278187432</v>
+        <v>1.77575132927154</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7893355439267493</v>
+        <v>0.7630948452680305</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.653538655896193</v>
+        <v>1.658703427255018</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.64829847990287</v>
+        <v>2.777819962311316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4326100516724518</v>
+        <v>0.4284222035966248</v>
       </c>
     </row>
     <row r="28">
